--- a/bots/crawl_ch/output/bread_coop_2023-02-01.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-01.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Buttergipfel IP-Suisse 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Buttergipfel IP-Suisse - Online kein Bestand 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Dinkel-Kuchenteig rund ausgewallt Ø32cm 20% ab 2 Stück Aktion 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Dinkel-Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Stück Aktion 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 20% ab 2 Stück Aktion 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm - Online kein Bestand 20% ab 2 Stück Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 20% ab 2 Aktion 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 20% ab 2 Aktion 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9062,7 +9062,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10202,45 +10202,45 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6104289</t>
+          <t>3617030</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
+          <t>Fine Food Knäckebrot 3-Saaten</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-3-saaten/p/3617030</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1.14/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10260,56 +10260,60 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
+          <t>Fine Food Knäckebrot 3-Saaten 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3617030</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot 3-Saaten</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-3-saaten/p/3617030</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10319,7 +10323,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10329,60 +10333,56 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot 3-Saaten 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10402,56 +10402,60 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>4886674</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Dar-Vida Cracker Ur-Dinkel</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10461,7 +10465,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10471,60 +10475,56 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Cracker Ur-Dinkel 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4886674</t>
+          <t>6104289</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.14/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10544,18 +10544,18 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11196,28 +11196,28 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>6482126</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11229,12 +11229,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11254,43 +11254,39 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Fairtrade Soft Cake Orange 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6482126</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11302,12 +11298,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11317,7 +11313,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11327,18 +11323,22 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr"/>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12397,45 +12397,45 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6383814</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E169" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12455,56 +12455,60 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>6383814</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Bauli Croissant Cream 6 Stück</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E170" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12514,7 +12518,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12524,22 +12528,18 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Cream 6 Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12892,7 +12892,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14669,45 +14669,45 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>6617154</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Prix Garantie Roggen Knäckebrot</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E201" t="n">
         <v>4.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.38/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14727,12 +14727,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
+          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14742,45 +14742,45 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6617154</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E202" t="n">
         <v>4.5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.38/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15667,7 +15667,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17566,7 +17566,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17708,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17990,7 +17990,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18059,7 +18059,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18201,7 +18201,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18270,43 +18270,45 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>4</v>
+      </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18316,7 +18318,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18326,42 +18328,44 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -18370,12 +18374,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18385,7 +18389,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18395,42 +18399,42 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E254" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -18439,12 +18443,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18454,7 +18458,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18464,56 +18468,56 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18523,7 +18527,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18533,46 +18537,42 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E256" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -18581,12 +18581,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18606,18 +18606,18 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19116,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19408,45 +19408,45 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19466,60 +19466,56 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E269" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19529,7 +19525,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19539,18 +19535,22 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19619,7 +19619,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19688,7 +19688,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19757,7 +19757,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19826,7 +19826,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19895,7 +19895,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19964,7 +19964,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20037,45 +20037,45 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E277" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20085,7 +20085,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20100,55 +20100,51 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E278" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20158,7 +20154,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20173,13 +20169,17 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20390,7 +20390,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20609,7 +20609,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20678,7 +20678,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20747,7 +20747,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21587,31 +21587,31 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21645,56 +21645,60 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21704,7 +21708,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21714,60 +21718,56 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21792,13 +21792,13 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21867,7 +21867,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21936,31 +21936,31 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E304" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -21999,51 +21999,51 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22053,7 +22053,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22063,56 +22063,54 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
       <c r="E306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22122,7 +22120,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22132,40 +22130,42 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>25</v>
+      </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -22174,12 +22174,12 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22189,7 +22189,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22204,13 +22204,13 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22279,7 +22279,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22352,7 +22352,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22494,7 +22494,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22924,45 +22924,45 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E318" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22982,56 +22982,56 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E319" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23041,7 +23041,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23051,56 +23051,60 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23110,7 +23114,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23120,56 +23124,56 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23179,7 +23183,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23189,22 +23193,18 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23350,31 +23350,31 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D324" t="n">
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -23413,37 +23413,37 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D325" t="n">
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -23482,13 +23482,13 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23703,7 +23703,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23772,7 +23772,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24050,7 +24050,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24190,24 +24190,24 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -24223,12 +24223,12 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24248,56 +24248,54 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
-        </is>
-      </c>
-      <c r="D337" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24307,7 +24305,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24317,56 +24315,56 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D338" t="n">
+        <v>23</v>
+      </c>
+      <c r="E338" t="n">
         <v>4</v>
       </c>
-      <c r="E338" t="n">
-        <v>5</v>
-      </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24376,7 +24374,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24386,54 +24384,60 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>6</v>
+      </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24443,7 +24447,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24453,56 +24457,56 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E340" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24512,7 +24516,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24522,43 +24526,39 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -24595,18 +24595,18 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24811,45 +24811,45 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E345" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24874,51 +24874,51 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E346" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24943,51 +24943,51 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25012,51 +25012,49 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25066,7 +25064,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25076,54 +25074,56 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25133,7 +25133,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25143,39 +25143,39 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -25187,12 +25187,12 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25212,18 +25212,18 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25296,7 +25296,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25369,7 +25369,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25509,7 +25509,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25578,45 +25578,45 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25626,7 +25626,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25636,18 +25636,18 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25720,45 +25720,45 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E358" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25778,56 +25778,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25847,56 +25847,54 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
-        </is>
-      </c>
-      <c r="D360" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25906,7 +25904,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25916,18 +25914,18 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26000,43 +25998,45 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>8</v>
+      </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26056,35 +26056,35 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -26095,17 +26095,17 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26125,18 +26125,18 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26278,7 +26278,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26416,7 +26416,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26554,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26984,7 +26984,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27057,45 +27057,45 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6102496</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.34/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27115,56 +27115,56 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27184,56 +27184,56 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6102496</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D379" t="n">
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27243,7 +27243,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27253,18 +27253,18 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g 5.90 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27331,7 +27331,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27400,45 +27400,45 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D382" t="n">
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27458,60 +27458,60 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D383" t="n">
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27521,7 +27521,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27531,22 +27531,22 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27613,7 +27613,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27749,7 +27749,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27818,7 +27818,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27960,7 +27960,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28029,7 +28029,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28098,7 +28098,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28234,7 +28234,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-01 12:56:57</t>
+          <t>2023-02-01 20:49:16</t>
         </is>
       </c>
     </row>
